--- a/bases/INEGI/SCN/Cuentas/Cuentas por Sectores Institucionales.xlsx
+++ b/bases/INEGI/SCN/Cuentas/Cuentas por Sectores Institucionales.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4496D68-4288-41D2-B5A2-026BBE53361E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Cuentas por Sectores Institucio" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\CIEP\Dropbox (CIEP)\BID SHCP\4.10.1 (BID-SHCP)\bases\INEGI\BIE\SCN\Cuentas\Cuentas por Sectores Institucionales.IQY" name="Cuentas por Sectores Institucionales" type="4" refreshedVersion="5" background="1" saveData="1">
+  <connection id="1" odcFile="D:\Dropbox (CIEP)\TemplateCIEP\basesCIEP\INEGI\SCN\Cuentas\Cuentas por Sectores Institucionales.IQY" name="Cuentas por Sectores Institucionales" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://www.inegi.org.mx/sistemas/BIE/ConsultaExporta.aspx" post="aamin=2003&amp;aamax=9999&amp;cveser=,510003,510004,510005,510006,510007,510008,510009,510010,510011,510012,510013,510014,510015,510016,510017,510018,510019,510020,510021,510022,510023,510024,510025,510026,510027,510028,510029,510030,510031,510032,510033,510034,510035,510036,510037,510038,510039,510040,510043,510044,510045,510046,510047,510048,510049,510050,510051,510052,510053,510054,510055,510056,510057,510058,510059,510060,510061,510062,510063,510064,510065,510066,510067,510068,510069,510070,510071,510072,510073,510074,510075,510076,510077,510078,510079,510080,510081,510082,510083,510084,510085,510086,510087,510088,510089,510090,510091,510093,510094,510095,510096,510097,510098,510099,510100,510101,510102,510103,&amp;ordena=a&amp;ordenaPeriodo=ap&amp;orientacion=v&amp;frecuencia=Todo&amp;estadistico=False&amp;esquema=&amp;bdesplaza=False&amp;FileFormat=iqy" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -175,13 +176,13 @@
     </r>
   </si>
   <si>
-    <t>Fecha de consulta: 16/08/2018 16:07:09</t>
+    <t>Fecha de consulta: 21/11/2018 18:07:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -734,27 +735,27 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -823,7 +824,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -882,7 +883,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -894,7 +895,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -911,9 +912,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -941,14 +942,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -976,6 +994,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1134,13 +1169,13 @@
       <selection sqref="A1:CU1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="99" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="99" width="80.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:99" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1278,7 @@
       <c r="CT1" s="1"/>
       <c r="CU1" s="1"/>
     </row>
-    <row r="2" spans="1:99" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:99" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1542,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1839,7 +1874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -2136,7 +2171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2003</v>
       </c>
@@ -2435,7 +2470,7 @@
         <v>1.9079462493420001</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2004</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>1.7779962511189999</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2005</v>
       </c>
@@ -3033,7 +3068,7 @@
         <v>1.8546657402060001</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2006</v>
       </c>
@@ -3332,7 +3367,7 @@
         <v>1.7832167255139999</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2007</v>
       </c>
@@ -3631,7 +3666,7 @@
         <v>1.7633588122279999</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>2008</v>
       </c>
@@ -3930,7 +3965,7 @@
         <v>1.128323999847</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>2009</v>
       </c>
@@ -4229,7 +4264,7 @@
         <v>1.4785978690670001</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>2010</v>
       </c>
@@ -4528,7 +4563,7 @@
         <v>1.573972192187</v>
       </c>
     </row>
-    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>2011</v>
       </c>
@@ -4827,7 +4862,7 @@
         <v>1.4462662945160001</v>
       </c>
     </row>
-    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>2012</v>
       </c>
@@ -5126,7 +5161,7 @@
         <v>1.3607709025929999</v>
       </c>
     </row>
-    <row r="15" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2013</v>
       </c>
@@ -5425,7 +5460,7 @@
         <v>0.54473646786300001</v>
       </c>
     </row>
-    <row r="16" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>2014</v>
       </c>
@@ -5724,7 +5759,7 @@
         <v>0.295133040545</v>
       </c>
     </row>
-    <row r="17" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2015</v>
       </c>
@@ -6023,7 +6058,7 @@
         <v>0.269225704836</v>
       </c>
     </row>
-    <row r="18" spans="1:99" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:99" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>27</v>
       </c>
@@ -6322,7 +6357,7 @@
         <v>0.26523218204799998</v>
       </c>
     </row>
-    <row r="19" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -6423,7 +6458,7 @@
       <c r="CT19" s="15"/>
       <c r="CU19" s="15"/>
     </row>
-    <row r="20" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:99" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -6526,7 +6561,7 @@
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
     </row>
-    <row r="21" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:99" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -6629,7 +6664,7 @@
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
     </row>
-    <row r="22" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:99" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -6732,16 +6767,16 @@
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
     </row>
-    <row r="23" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:99" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="14"/>
     </row>
-    <row r="25" spans="1:99" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:99" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
     </row>
   </sheetData>
